--- a/log/log_201508030221_王亚鹏.xlsx
+++ b/log/log_201508030221_王亚鹏.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>日期</t>
   </si>
@@ -140,6 +140,41 @@
   <si>
     <t>1、学习Test类
 2、利用test增加表数据</t>
+  </si>
+  <si>
+    <t>21:00-23:00</t>
+  </si>
+  <si>
+    <t>编写service代码，向数据库中插入数据</t>
+  </si>
+  <si>
+    <t>1、未连接学校内网
+2、表头对应错误</t>
+  </si>
+  <si>
+    <t>解决service的bug</t>
+  </si>
+  <si>
+    <t>解决无果，重新编写</t>
+  </si>
+  <si>
+    <t>学习web的代码，理解代码的逻辑关系</t>
+  </si>
+  <si>
+    <t>编写web代码，</t>
+  </si>
+  <si>
+    <t>需要注重细节，总有一些变量名，方法写错</t>
+  </si>
+  <si>
+    <t>解决web代码bug</t>
+  </si>
+  <si>
+    <t>把自己的模块上传到github
+并重新下载测试，自己的模块是否有误</t>
+  </si>
+  <si>
+    <t>编写开发文档，完善开发日志</t>
   </si>
   <si>
     <t>周次</t>
@@ -182,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,6 +233,65 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,8 +305,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,14 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -242,43 +352,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -287,17 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,35 +374,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -349,19 +384,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,25 +474,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,133 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +575,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,52 +651,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,8 +659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,164 +675,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -805,6 +840,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1125,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1419,7 +1460,7 @@
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1432,20 +1473,119 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+    <row r="20" ht="28.5" spans="1:5">
+      <c r="A20" s="3">
+        <v>43256</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>43257</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>43259</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>43260</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>43262</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" ht="28.5" spans="1:4">
+      <c r="A25" s="8">
+        <v>43263</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>43265</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1472,13 +1612,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1489,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="89" customHeight="1" spans="1:4">
@@ -1503,13 +1643,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="96" customHeight="1" spans="1:4">
@@ -1517,10 +1657,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1529,10 +1669,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2"/>
     </row>
